--- a/results/mp/logistic/corona/confidence/42/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,36 +40,33 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>died</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
     <t>drop</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -88,49 +88,52 @@
     <t>stop</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>friend</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>wow</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>safe</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>heroes</t>
@@ -139,93 +142,81 @@
     <t>good</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>giving</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>giving</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
@@ -233,6 +224,9 @@
   </si>
   <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -590,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -709,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7368421052631579</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,19 +721,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -751,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -759,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7191780821917808</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C5">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -801,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,28 +803,28 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6153846153846154</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>16</v>
       </c>
-      <c r="D6">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6">
         <v>0.8947368421052632</v>
@@ -859,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4736842105263158</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -877,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,7 +903,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4722222222222222</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C8">
         <v>17</v>
@@ -927,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L8">
         <v>31</v>
       </c>
-      <c r="K8">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="L8">
-        <v>13</v>
-      </c>
       <c r="M8">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -951,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4705882352941176</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>312</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>312</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4666666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1027,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1059,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4594594594594595</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1077,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.8198433420365535</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L11">
-        <v>314</v>
+        <v>21</v>
       </c>
       <c r="M11">
-        <v>314</v>
+        <v>21</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1101,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4444444444444444</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C12">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1127,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.8113207547169812</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1151,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1159,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3725490196078431</v>
+        <v>0.3236434108527132</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1177,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>32</v>
+        <v>349</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1201,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1209,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3294573643410852</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C14">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1227,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>346</v>
+        <v>42</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.8048780487804879</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L14">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="M14">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1251,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1259,7 +1253,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2542372881355932</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -1277,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K15">
-        <v>0.7931034482758621</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1301,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1309,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2533333333333334</v>
+        <v>0.24</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1327,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>0.7872340425531915</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1351,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1359,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1879194630872483</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1377,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1401,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,13 +1403,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.05952380952380952</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1427,95 +1421,71 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <v>0.7446808510638298</v>
+      </c>
+      <c r="L18">
+        <v>35</v>
+      </c>
+      <c r="M18">
+        <v>35</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K18">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L18">
-        <v>28</v>
-      </c>
-      <c r="M18">
-        <v>28</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.004188144329896907</v>
-      </c>
-      <c r="C19">
-        <v>13</v>
-      </c>
-      <c r="D19">
-        <v>16</v>
-      </c>
-      <c r="E19">
-        <v>0.19</v>
-      </c>
-      <c r="F19">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>3091</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19">
+        <v>0.7375</v>
+      </c>
+      <c r="L19">
+        <v>118</v>
+      </c>
+      <c r="M19">
+        <v>118</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>42</v>
-      </c>
-      <c r="K19">
-        <v>0.7605633802816901</v>
-      </c>
-      <c r="L19">
-        <v>108</v>
-      </c>
-      <c r="M19">
-        <v>108</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>0.7578125</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L20">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1527,21 +1497,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1553,21 +1523,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>0.7441860465116279</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1579,21 +1549,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>0.7407407407407407</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1605,21 +1575,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>0.7368421052631579</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1631,21 +1601,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>0.7272727272727273</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1657,21 +1627,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>0.696969696969697</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1683,21 +1653,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>0.6818181818181818</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1709,21 +1679,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>0.6507936507936508</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L28">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1735,21 +1705,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>0.65</v>
+        <v>0.625</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1761,21 +1731,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>0.62</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1787,12 +1757,12 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K31">
         <v>0.6071428571428571</v>
@@ -1818,16 +1788,16 @@
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K32">
-        <v>0.6071428571428571</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1839,21 +1809,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K33">
-        <v>0.6058823529411764</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1865,47 +1835,47 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K34">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="L34">
+        <v>29</v>
+      </c>
+      <c r="M34">
+        <v>29</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>21</v>
-      </c>
-      <c r="M34">
-        <v>21</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>14</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K35">
-        <v>0.5833333333333334</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1917,21 +1887,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K36">
-        <v>0.5692307692307692</v>
+        <v>0.5457627118644067</v>
       </c>
       <c r="L36">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="M36">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1943,21 +1913,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K37">
-        <v>0.5652173913043478</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1969,21 +1939,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K38">
-        <v>0.5638297872340425</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L38">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="M38">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1995,21 +1965,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K39">
-        <v>0.5606694560669456</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L39">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2021,21 +1991,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K40">
-        <v>0.559322033898305</v>
+        <v>0.5</v>
       </c>
       <c r="L40">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2047,21 +2017,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>130</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K41">
-        <v>0.5285714285714286</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L41">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2073,21 +2043,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K42">
-        <v>0.5151515151515151</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2099,21 +2069,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K43">
-        <v>0.4761904761904762</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M43">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2125,21 +2095,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K44">
-        <v>0.4642857142857143</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2151,21 +2121,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K45">
-        <v>0.4117647058823529</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2177,21 +2147,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K46">
-        <v>0.3932584269662922</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="L46">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2203,21 +2173,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K47">
-        <v>0.3424657534246575</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L47">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2229,21 +2199,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K48">
-        <v>0.3111111111111111</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2255,33 +2225,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K49">
-        <v>0.2564102564102564</v>
-      </c>
-      <c r="L49">
-        <v>20</v>
-      </c>
-      <c r="M49">
-        <v>20</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
